--- a/WorkBot/refactor/data/orders/Performance Food/Performance Food_Triphammer_2025-09-26.xlsx
+++ b/WorkBot/refactor/data/orders/Performance Food/Performance Food_Triphammer_2025-09-26.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -853,6 +853,924 @@
         </is>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TN330</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Natalie's - Honey Tangerine</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TN454</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Natalie's - Orange Mango</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P5596</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Haddock Fillet - Battered (frz)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>279.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CP992</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fries - Steak</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>12798</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Can - Cranberry Sauce - Jellied</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>59.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>59.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>81692</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Can - Garbanzo Beans</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>34.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>69.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FC576</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Oil - Olive Extra Virgin</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>725.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FT548</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Vinegar - Rice Seasoned</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>68.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>10198</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Capers</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>25460</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Hard Boiled Egg</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>128.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>NH016</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Provolone (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>100.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>200.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AV906</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Swiss (Sliced)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>56.88</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>NJ502</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pepper Jack (Sliced)</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>53.03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>106.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>42498</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Ham (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>65.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>197.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DT820</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Turkey (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>61.20</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1101.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>E3556</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Pastrami (Sliced)</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>66.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>132.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>WF580</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Corned Beef (Sliced)</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>66.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>132.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>38476</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Salami (Unsliced)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>100.80</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>201.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>HN732</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Avocado - Hand Scooped</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>57.63</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>461.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>J2280</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Yogurt BIB</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>37.80</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>151.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>K1570</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Buttermilk</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ABK40</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Chicken Wing - Fully Cooked</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>142.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>285.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CG686</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Chicken Breast - Retail (cooked)</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>270.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>LF010</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Base - Vegetable</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>48.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>96.50</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>LG162</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Base - Beef (No MSG)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>46.81</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>46.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>FA874</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Base - Demi</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>118.84</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>118.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BK482</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ravioli - Cheese (large) square</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>278.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CF288</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Peas - FRZ</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>29.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>29.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CF284</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Corn - FRZ</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>21.47</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>42.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>ABK44</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Chicken Tenders - (1oz)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>133.92</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>V8852</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Chicken Filet - Breaded 4 oz (Raw)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>27.43</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>329.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CD608</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Mahi Mahi Filet (6oz)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>115.45</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>115.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>A6564</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sausage - Chorizo</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>33808</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Eggplant - Fresh</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>14.93</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
